--- a/fiche de réunion.xlsx
+++ b/fiche de réunion.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="23">
   <si>
     <t>reunion du 04/04/2013</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Moyenne</t>
+  </si>
+  <si>
+    <t>P</t>
   </si>
 </sst>
 </file>
@@ -196,11 +199,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -209,11 +209,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -232,27 +236,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -555,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:V15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,46 +550,46 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
+      <c r="E4" s="9"/>
+      <c r="F4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1" t="s">
+      <c r="G4" s="9"/>
+      <c r="H4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1" t="s">
+      <c r="I4" s="9"/>
+      <c r="J4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1" t="s">
+      <c r="K4" s="9"/>
+      <c r="L4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1" t="s">
+      <c r="M4" s="9"/>
+      <c r="N4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1" t="s">
+      <c r="O4" s="9"/>
+      <c r="P4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1" t="s">
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="S4" s="1"/>
-      <c r="U4" s="8" t="s">
+      <c r="S4" s="9"/>
+      <c r="U4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="V4" s="8"/>
+      <c r="V4" s="7"/>
     </row>
     <row r="5" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
@@ -668,61 +651,61 @@
       </c>
     </row>
     <row r="6" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="M6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="N6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="O6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="6" t="s">
+      <c r="P6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q6" s="6" t="s">
+      <c r="Q6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="R6" s="6" t="s">
+      <c r="R6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="6" t="s">
+      <c r="S6" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -730,155 +713,190 @@
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="T7" s="7"/>
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="T7" s="6"/>
       <c r="U7">
         <f>(S7+Q7+O7+M7+K7+I7+G7+E7+C7)/9</f>
-        <v>0</v>
+        <v>0.44444444444444442</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="T8" s="7"/>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="T8" s="6"/>
       <c r="U8">
         <f t="shared" ref="U8:U15" si="0">(S8+Q8+O8+M8+K8+I8+G8+E8+C8)/9</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="T9" s="7"/>
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="T9" s="6"/>
       <c r="U9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="T10" s="7"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="T10" s="6"/>
       <c r="U10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="T13" s="7"/>
+      <c r="B13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="10">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="T13" s="6"/>
       <c r="U13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="T14" s="7"/>
+      <c r="B14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="10">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="T14" s="6"/>
       <c r="U14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="T15" s="7"/>
+      <c r="B15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="10">
+        <v>3</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="T15" s="6"/>
       <c r="U15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
   </sheetData>
